--- a/Design/Script/Draft 1.xlsx
+++ b/Design/Script/Draft 1.xlsx
@@ -56,9 +56,6 @@
     <t>The best thing we can do is to let it grow</t>
   </si>
   <si>
-    <t>Evolve</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>What is waiting for us above the clouds</t>
+  </si>
+  <si>
+    <t>And as it begins to add colour to own world</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,215 +578,214 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2"/>
     </row>

--- a/Design/Script/Draft 1.xlsx
+++ b/Design/Script/Draft 1.xlsx
@@ -62,9 +62,6 @@
     <t>For as it changes so do we</t>
   </si>
   <si>
-    <t>Always for the better</t>
-  </si>
-  <si>
     <t>Building 3</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>And as it begins to add colour to own world</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> q</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,191 +601,191 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="2"/>
     </row>
